--- a/data/surge/surgeData323.xlsx
+++ b/data/surge/surgeData323.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/R10/CH4_323_Mormon/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{483E6435-7C3E-4BEA-8F90-0260DF2C16C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35309113-419E-47CD-801C-601C3B4F08DB}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{483E6435-7C3E-4BEA-8F90-0260DF2C16C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D16D2912-C1E5-4E65-B5BD-9A207041C339}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="2160" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4970" yWindow="3650" windowWidth="14340" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="225">
   <si>
     <t>F1</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>18R100221</t>
+  </si>
+  <si>
+    <t>08.10.2018</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1333,6 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1690,80 +1694,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.36328125" customWidth="1"/>
+    <col min="30" max="30" width="10.36328125" customWidth="1"/>
+    <col min="31" max="31" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.33203125" customWidth="1"/>
-    <col min="65" max="65" width="14.88671875" customWidth="1"/>
-    <col min="66" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.36328125" customWidth="1"/>
+    <col min="51" max="51" width="8.36328125" customWidth="1"/>
+    <col min="52" max="52" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.36328125" customWidth="1"/>
+    <col min="65" max="65" width="14.90625" customWidth="1"/>
+    <col min="66" max="66" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="27.44140625" customWidth="1"/>
-    <col min="71" max="71" width="19.44140625" customWidth="1"/>
+    <col min="70" max="70" width="27.453125" customWidth="1"/>
+    <col min="71" max="71" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1859,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A3" s="25">
         <v>323</v>
       </c>
@@ -2194,7 +2198,7 @@
       <c r="BY3" s="29"/>
       <c r="BZ3" s="26"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A4" s="25">
         <v>323</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A5" s="25">
         <v>323</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>-114.79626</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G5" s="27">
         <v>0.62847222222222221</v>
@@ -2393,7 +2397,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A6" s="25">
         <v>323</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>-114.79758</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G6" s="27">
         <v>0.66388888888888886</v>
@@ -2500,7 +2504,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A7" s="25">
         <v>323</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>-114.80269</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G7" s="27">
         <v>0.60277777777777775</v>
@@ -2598,7 +2602,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>323</v>
       </c>
@@ -2611,11 +2615,11 @@
       <c r="D8" s="30">
         <v>43.275199999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="38">
         <v>-114.7992</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G8" s="27">
         <v>0.64097222222222217</v>
@@ -2699,7 +2703,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>323</v>
       </c>
@@ -2797,7 +2801,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>323</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>-114.79882000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G10" s="27">
         <v>0.67222222222222217</v>
@@ -2898,7 +2902,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A11" s="25">
         <v>323</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A12" s="25">
         <v>323</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>-114.79687</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G12" s="27">
         <v>0.65</v>
@@ -3094,7 +3098,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25">
         <v>323</v>
       </c>
@@ -3107,7 +3111,7 @@
       <c r="D13" s="30">
         <v>43.273470000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="38">
         <v>-114.8036</v>
       </c>
       <c r="F13" t="s">
@@ -3192,7 +3196,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <v>323</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A15" s="25">
         <v>323</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A16" s="25">
         <v>323</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A17" s="25">
         <v>323</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>-114.80428999999999</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G17" s="27">
         <v>0.55833333333333335</v>
@@ -3614,7 +3618,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.35">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
@@ -3642,14 +3646,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6328125" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3671,7 +3675,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3770,7 +3774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3781,7 +3785,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3792,7 +3796,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4062,7 +4066,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4094,7 +4098,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4186,7 +4190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4197,7 +4201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4238,7 +4242,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4254,7 +4258,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4342,7 +4346,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4375,7 +4379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4397,7 +4401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4408,7 +4412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4432,17 +4436,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="25"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="25"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4458,7 +4462,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4492,7 +4496,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>217</v>
       </c>
@@ -4521,7 +4525,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>217</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>217</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>217</v>
       </c>
@@ -4625,14 +4629,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.54296875" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>162</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>163</v>
       </c>
@@ -4687,7 +4691,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>164</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>165</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>166</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>167</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>168</v>
       </c>
@@ -4746,10 +4750,56 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5220,66 +5270,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5E0346-889E-47B9-9810-E0B9FACFC525}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5302,24 +5320,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>